--- a/data/Login.xlsx
+++ b/data/Login.xlsx
@@ -1,20 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my files\BootCamp2020\Salesforce\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A081B91E-6805-40B6-A3AF-D117B73ED13E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8040"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="19460" windowHeight="11060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,16 +29,16 @@
     <t>Password</t>
   </si>
   <si>
-    <t>makaia@testleaf.com</t>
+    <t>hari.radhakrishnan@qeagle.com</t>
   </si>
   <si>
-    <t>SelBootcamp$123</t>
+    <t>Tuna@123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -378,20 +375,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -399,19 +396,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{EFD10154-40B6-4A84-BF47-4D7606BAF4C0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>